--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -700,6 +700,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,15 +737,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1159,58 +1159,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1235,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1568,7 +1568,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2886,11 +2886,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2904,6 +2899,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2914,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2947,43 +2947,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3028,58 +3028,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3104,23 +3104,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3437,7 +3437,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4755,13 +4755,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4773,6 +4766,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4783,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4816,43 +4816,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4897,58 +4897,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -4973,23 +4973,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5191,7 +5191,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5280,7 +5280,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6600,13 +6600,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6618,6 +6611,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6628,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6661,43 +6661,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6742,58 +6742,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6818,49 +6818,79 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="44">
+        <v>865904027284253</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="I6" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6872,26 +6902,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="44">
+        <v>862118029979652</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="M7" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="3">
+        <v>190000</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6901,26 +6959,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="44">
+        <v>862631039247829</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="I8" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6930,26 +7016,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="44">
+        <v>866104024790936</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="58"/>
+      <c r="G9" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="K9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6959,26 +7073,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="44">
+        <v>866104024722095</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="K10" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6988,26 +7130,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
+      <c r="B11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="44">
+        <v>867857039932970</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="M11" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7017,26 +7187,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="44">
+        <v>867717030487491</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="L12" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7048,26 +7244,56 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="B13" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="44">
+        <v>867717030490008</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>72</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7096,7 +7322,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7125,7 +7351,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7154,7 +7380,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7273,7 +7499,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -7305,7 +7531,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -7337,7 +7563,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -7454,7 +7680,7 @@
       </c>
       <c r="V26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="16"/>
     </row>
@@ -7550,7 +7776,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -7646,7 +7872,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -7742,7 +7968,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -7806,7 +8032,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -8385,6 +8611,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8396,13 +8629,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -700,15 +700,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,6 +728,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1159,58 +1159,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1235,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1568,7 +1568,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2886,6 +2886,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2899,11 +2904,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2947,43 +2947,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3028,58 +3028,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3104,23 +3104,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3437,7 +3437,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4755,6 +4755,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4766,13 +4773,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4783,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G11" sqref="A11:G11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4816,43 +4816,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4897,58 +4897,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -4973,23 +4973,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5191,7 +5191,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5280,7 +5280,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6600,6 +6600,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6611,13 +6618,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6628,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:R13"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6661,43 +6661,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6742,58 +6742,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6818,23 +6818,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7351,7 +7351,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8611,13 +8611,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8629,6 +8622,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
